--- a/po_analysis_by_asin/B0BVRGMXHG_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRGMXHG_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45411</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45432</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
@@ -492,15 +492,15 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45460</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,57 +508,153 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45474</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45488</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45495</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45516</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45523</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45579</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45586</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B27" t="n">
         <v>50</v>
       </c>
     </row>
@@ -573,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,65 +691,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>54</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BVRGMXHG_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRGMXHG_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -685,7 +686,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -823,6 +824,523 @@
       </c>
       <c r="B18" t="n">
         <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.863752217277275</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.37657567809445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-8.163231164931091</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.61714131979594</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-8.407632895344351</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.83359362483577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.368502735021089</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.34483663378481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.120147473852537</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.30896370684232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.322710530751458</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.73806387460757</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.531188832294291</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.96388015454887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.893636130882616</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.93481941671612</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.441859827070132</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.71117495733529</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.13950970084772</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19.71233738974309</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-6.246932920252646</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.48104428389698</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-6.890831424946911</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.42499782385294</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-5.942304693478872</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22.0765607807224</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-4.834962518153404</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.82681247209772</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-5.978748154826236</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21.82443656366103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-4.362368979307549</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22.06869720504935</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-4.064081976801312</v>
+      </c>
+      <c r="D18" t="n">
+        <v>22.7242228554031</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.164127685522659</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22.33872902696784</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.99565414927458</v>
+      </c>
+      <c r="D20" t="n">
+        <v>22.69796009253515</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-3.791389606823153</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.39827442493442</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.426363668811764</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23.2421798351952</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.474503323858724</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22.4822476758218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.702339010122818</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22.56193887567983</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.518460038882307</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.78225727223554</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.469194994225089</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23.6124586471685</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.885475145194926</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23.5461290780766</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.572425221434706</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.26699283920285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.882497665683946</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.6775763419128</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>11</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.093138833483065</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24.26546576517479</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.362053852023168</v>
+      </c>
+      <c r="D31" t="n">
+        <v>23.59810979921912</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.88092926262949</v>
+      </c>
+      <c r="D32" t="n">
+        <v>24.31263551686187</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.12170180644169</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22.93194986834898</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.812393629927346</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24.94809426241415</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.974198759088988</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.09543082893821</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BVRGMXHG_po_data.xlsx
+++ b/po_analysis_by_asin/B0BVRGMXHG_po_data.xlsx
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,16 +856,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -874,12 +864,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-8.863752217277275</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.37657567809445</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -888,12 +872,6 @@
       <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
-        <v>-8.163231164931091</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.61714131979594</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -902,12 +880,6 @@
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>-8.407632895344351</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.83359362483577</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -916,12 +888,6 @@
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.368502735021089</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.34483663378481</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -930,12 +896,6 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.120147473852537</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.30896370684232</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -944,12 +904,6 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>-8.322710530751458</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18.73806387460757</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -958,12 +912,6 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>-7.531188832294291</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19.96388015454887</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -972,12 +920,6 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.893636130882616</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19.93481941671612</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -986,12 +928,6 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>-6.441859827070132</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19.71117495733529</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1000,12 +936,6 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>-6.13950970084772</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19.71233738974309</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1014,12 +944,6 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" t="n">
-        <v>-6.246932920252646</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.48104428389698</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1028,12 +952,6 @@
       <c r="B13" t="n">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
-        <v>-6.890831424946911</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20.42499782385294</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1042,12 +960,6 @@
       <c r="B14" t="n">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
-        <v>-5.942304693478872</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22.0765607807224</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1056,12 +968,6 @@
       <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15" t="n">
-        <v>-4.834962518153404</v>
-      </c>
-      <c r="D15" t="n">
-        <v>21.82681247209772</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1070,12 +976,6 @@
       <c r="B16" t="n">
         <v>8</v>
       </c>
-      <c r="C16" t="n">
-        <v>-5.978748154826236</v>
-      </c>
-      <c r="D16" t="n">
-        <v>21.82443656366103</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1084,12 +984,6 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" t="n">
-        <v>-4.362368979307549</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22.06869720504935</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1098,12 +992,6 @@
       <c r="B18" t="n">
         <v>9</v>
       </c>
-      <c r="C18" t="n">
-        <v>-4.064081976801312</v>
-      </c>
-      <c r="D18" t="n">
-        <v>22.7242228554031</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1112,12 +1000,6 @@
       <c r="B19" t="n">
         <v>9</v>
       </c>
-      <c r="C19" t="n">
-        <v>-4.164127685522659</v>
-      </c>
-      <c r="D19" t="n">
-        <v>22.33872902696784</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1126,12 +1008,6 @@
       <c r="B20" t="n">
         <v>9</v>
       </c>
-      <c r="C20" t="n">
-        <v>-3.99565414927458</v>
-      </c>
-      <c r="D20" t="n">
-        <v>22.69796009253515</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1140,12 +1016,6 @@
       <c r="B21" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="n">
-        <v>-3.791389606823153</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23.39827442493442</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1154,12 +1024,6 @@
       <c r="B22" t="n">
         <v>10</v>
       </c>
-      <c r="C22" t="n">
-        <v>-4.426363668811764</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23.2421798351952</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1168,12 +1032,6 @@
       <c r="B23" t="n">
         <v>10</v>
       </c>
-      <c r="C23" t="n">
-        <v>-4.474503323858724</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22.4822476758218</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1182,12 +1040,6 @@
       <c r="B24" t="n">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>-3.702339010122818</v>
-      </c>
-      <c r="D24" t="n">
-        <v>22.56193887567983</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1196,12 +1048,6 @@
       <c r="B25" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.518460038882307</v>
-      </c>
-      <c r="D25" t="n">
-        <v>23.78225727223554</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1210,12 +1056,6 @@
       <c r="B26" t="n">
         <v>10</v>
       </c>
-      <c r="C26" t="n">
-        <v>-3.469194994225089</v>
-      </c>
-      <c r="D26" t="n">
-        <v>23.6124586471685</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1224,12 +1064,6 @@
       <c r="B27" t="n">
         <v>10</v>
       </c>
-      <c r="C27" t="n">
-        <v>-2.885475145194926</v>
-      </c>
-      <c r="D27" t="n">
-        <v>23.5461290780766</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1238,12 +1072,6 @@
       <c r="B28" t="n">
         <v>11</v>
       </c>
-      <c r="C28" t="n">
-        <v>-2.572425221434706</v>
-      </c>
-      <c r="D28" t="n">
-        <v>24.26699283920285</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1252,12 +1080,6 @@
       <c r="B29" t="n">
         <v>11</v>
       </c>
-      <c r="C29" t="n">
-        <v>-2.882497665683946</v>
-      </c>
-      <c r="D29" t="n">
-        <v>25.6775763419128</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1266,12 +1088,6 @@
       <c r="B30" t="n">
         <v>11</v>
       </c>
-      <c r="C30" t="n">
-        <v>-2.093138833483065</v>
-      </c>
-      <c r="D30" t="n">
-        <v>24.26546576517479</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1280,12 +1096,6 @@
       <c r="B31" t="n">
         <v>11</v>
       </c>
-      <c r="C31" t="n">
-        <v>-3.362053852023168</v>
-      </c>
-      <c r="D31" t="n">
-        <v>23.59810979921912</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1294,12 +1104,6 @@
       <c r="B32" t="n">
         <v>11</v>
       </c>
-      <c r="C32" t="n">
-        <v>-2.88092926262949</v>
-      </c>
-      <c r="D32" t="n">
-        <v>24.31263551686187</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1308,12 +1112,6 @@
       <c r="B33" t="n">
         <v>11</v>
       </c>
-      <c r="C33" t="n">
-        <v>-3.12170180644169</v>
-      </c>
-      <c r="D33" t="n">
-        <v>22.93194986834898</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1322,12 +1120,6 @@
       <c r="B34" t="n">
         <v>11</v>
       </c>
-      <c r="C34" t="n">
-        <v>-2.812393629927346</v>
-      </c>
-      <c r="D34" t="n">
-        <v>24.94809426241415</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1335,12 +1127,6 @@
       </c>
       <c r="B35" t="n">
         <v>11</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-1.974198759088988</v>
-      </c>
-      <c r="D35" t="n">
-        <v>24.09543082893821</v>
       </c>
     </row>
   </sheetData>
